--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wpc_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wpc_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -1058,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -1090,7 +1090,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1162,7 +1162,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1170,7 +1170,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1210,7 +1210,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1218,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -1226,7 +1226,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -1258,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -1266,7 +1266,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -1603,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1635,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -1643,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -1683,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1691,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -1699,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -1755,7 +1755,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -1763,7 +1763,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -1795,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -2020,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2044,7 +2044,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -2068,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2108,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -2156,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -2204,7 +2204,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -2212,7 +2212,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -2220,7 +2220,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -2228,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -2268,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -2276,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -2284,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -2292,7 +2292,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -2316,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -2565,7 +2565,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -2597,7 +2597,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -2653,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -2661,7 +2661,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -2709,7 +2709,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -2717,7 +2717,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -2725,7 +2725,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -2733,7 +2733,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -2781,7 +2781,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -2789,7 +2789,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -2797,7 +2797,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -2805,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -2813,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
@@ -2829,7 +2829,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
@@ -2837,7 +2837,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -3006,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3054,7 +3054,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -3086,7 +3086,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -3134,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -3142,7 +3142,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -3198,7 +3198,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
@@ -3206,7 +3206,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -3222,7 +3222,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -3230,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -3278,7 +3278,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -3286,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -3294,7 +3294,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -3302,7 +3302,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -3310,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -3334,7 +3334,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -3342,7 +3342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -3350,7 +3350,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -3358,7 +3358,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -3495,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -3511,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3535,7 +3535,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -3567,7 +3567,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3607,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -3615,7 +3615,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -3671,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -3679,7 +3679,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -3687,7 +3687,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -3695,7 +3695,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -3703,7 +3703,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -3759,7 +3759,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -3767,7 +3767,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -3775,7 +3775,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -3783,7 +3783,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -3791,7 +3791,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -3799,7 +3799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -3823,7 +3823,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -3831,7 +3831,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
@@ -3839,7 +3839,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -3847,7 +3847,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -3863,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -3871,7 +3871,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -4016,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -4080,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -4128,7 +4128,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -4136,7 +4136,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -4144,7 +4144,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -4224,7 +4224,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -4232,7 +4232,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -4240,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -4248,7 +4248,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -4264,7 +4264,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -4304,7 +4304,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
@@ -4312,7 +4312,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -4320,7 +4320,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -4328,7 +4328,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -4336,7 +4336,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -4352,7 +4352,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -4360,7 +4360,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -4368,7 +4368,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -4376,7 +4376,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -4384,7 +4384,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -4505,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -4529,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -4561,7 +4561,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -4569,7 +4569,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4617,7 +4617,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -4625,7 +4625,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -4633,7 +4633,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -4721,7 +4721,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -4729,7 +4729,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -4737,7 +4737,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -4745,7 +4745,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -4753,7 +4753,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -4761,7 +4761,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -4769,7 +4769,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -4777,7 +4777,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -4817,7 +4817,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
@@ -4825,7 +4825,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -4833,7 +4833,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -4841,7 +4841,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -4857,7 +4857,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -4865,7 +4865,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -4873,7 +4873,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -4881,7 +4881,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -4889,7 +4889,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -4897,7 +4897,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
@@ -4962,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -4994,7 +4994,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -5018,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -5050,7 +5050,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -5106,7 +5106,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -5114,7 +5114,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -5122,7 +5122,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -5130,7 +5130,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -5266,7 +5266,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -5274,7 +5274,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -5282,7 +5282,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
@@ -5290,7 +5290,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -5298,7 +5298,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -5306,7 +5306,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -5314,7 +5314,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -5338,7 +5338,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
@@ -5346,7 +5346,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
@@ -5354,7 +5354,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -5370,7 +5370,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
@@ -5378,7 +5378,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -5386,7 +5386,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -5394,7 +5394,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -5402,7 +5402,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -5410,7 +5410,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -5539,7 +5539,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -5595,7 +5595,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -5603,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -5611,7 +5611,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -5619,7 +5619,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -5627,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -5635,7 +5635,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -5643,7 +5643,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -5651,7 +5651,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -5659,7 +5659,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -5667,7 +5667,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -5675,7 +5675,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -5683,7 +5683,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -5691,7 +5691,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -5699,7 +5699,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -5707,7 +5707,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -5715,7 +5715,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -5723,7 +5723,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -5731,7 +5731,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -5739,7 +5739,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -5747,7 +5747,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -5755,7 +5755,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -5763,7 +5763,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -5771,7 +5771,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -5779,7 +5779,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -5787,7 +5787,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -5795,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -5803,7 +5803,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -5811,7 +5811,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
@@ -5843,7 +5843,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
@@ -5851,7 +5851,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
@@ -5859,7 +5859,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
@@ -5875,7 +5875,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
@@ -5891,7 +5891,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -5899,7 +5899,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -5907,7 +5907,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -5915,7 +5915,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -6469,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -6493,7 +6493,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -6533,7 +6533,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -6541,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -6549,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -6557,7 +6557,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -6629,7 +6629,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -6637,7 +6637,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -6645,7 +6645,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -6653,7 +6653,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -6661,7 +6661,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -6741,7 +6741,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -6749,7 +6749,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6757,7 +6757,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -6853,7 +6853,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
@@ -6982,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -7006,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -7174,7 +7174,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -7663,7 +7663,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -7703,7 +7703,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -8128,7 +8128,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -8144,7 +8144,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -8184,7 +8184,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -8208,7 +8208,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -8232,7 +8232,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -8489,7 +8489,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -8569,7 +8569,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -8681,7 +8681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -8705,7 +8705,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -8729,7 +8729,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -8761,7 +8761,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -9162,7 +9162,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -9210,7 +9210,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -9242,7 +9242,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -9274,7 +9274,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -9579,7 +9579,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -9667,7 +9667,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -9691,7 +9691,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -9723,7 +9723,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -9755,7 +9755,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -9763,7 +9763,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -9795,7 +9795,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -9803,7 +9803,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -10164,7 +10164,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -10228,7 +10228,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -10260,7 +10260,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -10268,7 +10268,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -10308,7 +10308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -10316,7 +10316,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
